--- a/table_after_parsing/parsing_30_04_2024.xlsx
+++ b/table_after_parsing/parsing_30_04_2024.xlsx
@@ -198,6 +198,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -232,12 +238,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -630,8 +630,8 @@
   </sheetPr>
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -644,7 +644,7 @@
   <sheetData>
     <row r="1" ht="70" customHeight="1">
       <c r="A1" s="2" t="n"/>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>пластиковые окна</t>
         </is>
@@ -663,7 +663,7 @@
       <c r="N1" s="26" t="n"/>
     </row>
     <row r="2" ht="70" customHeight="1">
-      <c r="A2" s="23" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>Категория</t>
         </is>
@@ -691,7 +691,7 @@
       <c r="N2" s="26" t="n"/>
     </row>
     <row r="3" ht="70" customHeight="1">
-      <c r="A3" s="24" t="inlineStr">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>Для анализа поисковой выдачи</t>
         </is>
@@ -715,7 +715,7 @@
       <c r="N3" s="26" t="n"/>
     </row>
     <row r="4" ht="70" customHeight="1">
-      <c r="A4" s="23" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>Для Аналитики спроса</t>
         </is>
@@ -740,7 +740,7 @@
       <c r="N4" s="26" t="n"/>
     </row>
     <row r="5" ht="70" customHeight="1">
-      <c r="A5" s="24" t="inlineStr">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>Категория для Аналитики спроса</t>
         </is>
@@ -764,7 +764,7 @@
       <c r="N5" s="26" t="n"/>
     </row>
     <row r="6" ht="70" customHeight="1">
-      <c r="A6" s="23" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>Для анализа кабинета</t>
         </is>
@@ -817,17 +817,12 @@
           <t>Краснодарский край, Краснодар</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 152
-пластиковые окна - 4753</t>
-        </is>
-      </c>
+      <c r="B8" s="4" t="n"/>
       <c r="C8" s="5" t="n">
-        <v>18352</v>
+        <v>46960</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E8" s="6" t="n"/>
       <c r="F8" s="6" t="n"/>
@@ -846,17 +841,12 @@
           <t>Краснодарский край, Сочи</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 29
-пластиковые окна - 1233</t>
-        </is>
-      </c>
+      <c r="B9" s="4" t="n"/>
       <c r="C9" s="6" t="n">
-        <v>9806</v>
+        <v>16182</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E9" s="6" t="n"/>
       <c r="F9" s="6" t="n"/>
@@ -875,17 +865,12 @@
           <t>Краснодарский край, Ейск</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 18
-пластиковые окна - 303</t>
-        </is>
-      </c>
+      <c r="B10" s="4" t="n"/>
       <c r="C10" s="6" t="n">
-        <v>725</v>
+        <v>1390</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="6" t="n"/>
       <c r="F10" s="6" t="n"/>
@@ -904,17 +889,12 @@
           <t>Краснодарский край, Геленджик</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 13
-пластиковые окна - 295</t>
-        </is>
-      </c>
+      <c r="B11" s="4" t="n"/>
       <c r="C11" s="6" t="n">
-        <v>2127</v>
+        <v>3370</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6" t="n"/>
       <c r="F11" s="6" t="n"/>
@@ -933,17 +913,12 @@
           <t>Краснодарский край, Кропоткин</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 4
-пластиковые окна - 247</t>
-        </is>
-      </c>
+      <c r="B12" s="4" t="n"/>
       <c r="C12" s="6" t="n">
-        <v>508</v>
+        <v>1082</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6" t="n"/>
       <c r="F12" s="6" t="n"/>
@@ -962,17 +937,12 @@
           <t>Краснодарский край, Славянск-на-Кубани</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 11
-пластиковые окна - 258</t>
-        </is>
-      </c>
+      <c r="B13" s="4" t="n"/>
       <c r="C13" s="6" t="n">
-        <v>714</v>
+        <v>1427</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="6" t="n"/>
       <c r="F13" s="6" t="n"/>
@@ -986,23 +956,10 @@
       <c r="N13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Краснодарский край, Туапсе</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 6
-пластиковые окна - 222</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>602</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
       <c r="E14" s="6" t="n"/>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="6" t="n"/>
@@ -1020,18 +977,9 @@
           <t>Краснодарский край, Лабинск</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 6
-пластиковые окна - 222</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>464</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
       <c r="E15" s="6" t="n"/>
       <c r="F15" s="6" t="n"/>
       <c r="G15" s="6" t="n"/>
@@ -1049,18 +997,9 @@
           <t>Краснодарский край, Белореченск</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 6
-пластиковые окна - 265</t>
-        </is>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>554</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
       <c r="E16" s="6" t="n"/>
       <c r="F16" s="6" t="n"/>
       <c r="G16" s="6" t="n"/>
@@ -1078,18 +1017,9 @@
           <t>Краснодарский край, Тихорецк</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 3
-пластиковые окна - 202</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>849</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
       <c r="E17" s="6" t="n"/>
       <c r="F17" s="6" t="n"/>
       <c r="G17" s="6" t="n"/>
@@ -1107,18 +1037,9 @@
           <t>Краснодарский край, Крымск</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 11
-пластиковые окна - 226</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>418</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
       <c r="E18" s="6" t="n"/>
       <c r="F18" s="6" t="n"/>
       <c r="G18" s="6" t="n"/>
@@ -1136,18 +1057,9 @@
           <t>Краснодарский край, Тимашёвск</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 2
-пластиковые окна - 181</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>286</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
       <c r="E19" s="6" t="n"/>
       <c r="F19" s="6" t="n"/>
       <c r="G19" s="6" t="n"/>
@@ -1165,18 +1077,9 @@
           <t>Краснодарский край, Каневская</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 1
-пластиковые окна - 122</t>
-        </is>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>140</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
       <c r="E20" s="6" t="n"/>
       <c r="F20" s="6" t="n"/>
       <c r="G20" s="6" t="n"/>
@@ -1194,18 +1097,9 @@
           <t>Краснодарский край, Кореновск</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 3
-пластиковые окна - 115</t>
-        </is>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>205</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
       <c r="F21" s="6" t="n"/>
       <c r="G21" s="6" t="n"/>
@@ -1223,18 +1117,9 @@
           <t>Краснодарский край, Горячий Ключ</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 3
-пластиковые окна - 131</t>
-        </is>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>851</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
       <c r="E22" s="6" t="n"/>
       <c r="F22" s="6" t="n"/>
       <c r="G22" s="6" t="n"/>
@@ -1252,18 +1137,9 @@
           <t>Краснодарский край, Усть-Лабинск</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 6
-пластиковые окна - 146</t>
-        </is>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>828</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>4</v>
-      </c>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
       <c r="E23" s="6" t="n"/>
       <c r="F23" s="6" t="n"/>
       <c r="G23" s="6" t="n"/>
@@ -1281,18 +1157,9 @@
           <t>Краснодарский край, Абинск</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 6
-пластиковые окна - 146</t>
-        </is>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>413</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
       <c r="E24" s="6" t="n"/>
       <c r="F24" s="6" t="n"/>
       <c r="G24" s="6" t="n"/>
@@ -1310,18 +1177,9 @@
           <t>Краснодарский край, Ленинградская</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 64</t>
-        </is>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>47</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
       <c r="E25" s="6" t="n"/>
       <c r="F25" s="6" t="n"/>
       <c r="G25" s="6" t="n"/>
@@ -1339,18 +1197,9 @@
           <t>Краснодарский край, Динская</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 2
-пластиковые окна - 92</t>
-        </is>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>257</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
       <c r="E26" s="6" t="n"/>
       <c r="F26" s="6" t="n"/>
       <c r="G26" s="6" t="n"/>
@@ -1368,18 +1217,9 @@
           <t>Краснодарский край, Гулькевичи</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 1
-пластиковые окна - 97</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>346</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
       <c r="E27" s="6" t="n"/>
       <c r="F27" s="6" t="n"/>
       <c r="G27" s="6" t="n"/>
@@ -1397,18 +1237,9 @@
           <t>Краснодарский край, Павловская</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 1
-пластиковые окна - 77</t>
-        </is>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>62</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
       <c r="E28" s="6" t="n"/>
       <c r="F28" s="6" t="n"/>
       <c r="G28" s="6" t="n"/>
@@ -1426,18 +1257,9 @@
           <t>Краснодарский край, Приморско-Ахтарск</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 1
-пластиковые окна - 61</t>
-        </is>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
       <c r="E29" s="6" t="n"/>
       <c r="F29" s="6" t="n"/>
       <c r="G29" s="6" t="n"/>
@@ -1455,18 +1277,9 @@
           <t>Краснодарский край, Староминская</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 59</t>
-        </is>
-      </c>
-      <c r="C30" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D30" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="6" t="n"/>
       <c r="E30" s="6" t="n"/>
       <c r="F30" s="6" t="n"/>
       <c r="G30" s="6" t="n"/>
@@ -1484,18 +1297,9 @@
           <t>Краснодарский край, Кущёвская</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 91</t>
-        </is>
-      </c>
-      <c r="C31" s="6" t="n">
-        <v>49</v>
-      </c>
-      <c r="D31" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="6" t="n"/>
+      <c r="D31" s="6" t="n"/>
       <c r="E31" s="6" t="n"/>
       <c r="F31" s="6" t="n"/>
       <c r="G31" s="6" t="n"/>
@@ -1513,18 +1317,9 @@
           <t>Краснодарский край, Полтавская</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 2
-пластиковые окна - 51</t>
-        </is>
-      </c>
-      <c r="C32" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B32" s="4" t="n"/>
+      <c r="C32" s="6" t="n"/>
+      <c r="D32" s="6" t="n"/>
       <c r="E32" s="6" t="n"/>
       <c r="F32" s="6" t="n"/>
       <c r="G32" s="6" t="n"/>
@@ -1542,18 +1337,9 @@
           <t>Краснодарский край, Мостовской</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 2
-пластиковые окна - 49</t>
-        </is>
-      </c>
-      <c r="C33" s="6" t="n">
-        <v>282</v>
-      </c>
-      <c r="D33" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="6" t="n"/>
       <c r="E33" s="6" t="n"/>
       <c r="F33" s="6" t="n"/>
       <c r="G33" s="6" t="n"/>
@@ -1571,18 +1357,9 @@
           <t>Краснодарский край, Тбилисская</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 51</t>
-        </is>
-      </c>
-      <c r="C34" s="6" t="n">
-        <v>95</v>
-      </c>
-      <c r="D34" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="6" t="n"/>
+      <c r="D34" s="6" t="n"/>
       <c r="E34" s="6" t="n"/>
       <c r="F34" s="6" t="n"/>
       <c r="G34" s="6" t="n"/>
@@ -1600,18 +1377,9 @@
           <t>Краснодарский край, Ильский</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 40</t>
-        </is>
-      </c>
-      <c r="C35" s="6" t="n">
-        <v>68</v>
-      </c>
-      <c r="D35" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B35" s="4" t="n"/>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="6" t="n"/>
       <c r="E35" s="6" t="n"/>
       <c r="F35" s="6" t="n"/>
       <c r="G35" s="6" t="n"/>
@@ -1629,18 +1397,9 @@
           <t>Краснодарский край, Северская</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 1
-пластиковые окна - 44</t>
-        </is>
-      </c>
-      <c r="C36" s="6" t="n">
-        <v>324</v>
-      </c>
-      <c r="D36" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="6" t="n"/>
+      <c r="D36" s="6" t="n"/>
       <c r="E36" s="6" t="n"/>
       <c r="F36" s="6" t="n"/>
       <c r="G36" s="6" t="n"/>
@@ -1658,18 +1417,9 @@
           <t>Краснодарский край, Елизаветинская</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 1
-пластиковые окна - 29</t>
-        </is>
-      </c>
-      <c r="C37" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="D37" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="6" t="n"/>
+      <c r="D37" s="6" t="n"/>
       <c r="E37" s="6" t="n"/>
       <c r="F37" s="6" t="n"/>
       <c r="G37" s="6" t="n"/>
@@ -1687,18 +1437,9 @@
           <t>Краснодарский край, Новотитаровская</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 45</t>
-        </is>
-      </c>
-      <c r="C38" s="6" t="n">
-        <v>242</v>
-      </c>
-      <c r="D38" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="6" t="n"/>
+      <c r="D38" s="6" t="n"/>
       <c r="E38" s="6" t="n"/>
       <c r="F38" s="6" t="n"/>
       <c r="G38" s="6" t="n"/>
@@ -1716,18 +1457,9 @@
           <t>Краснодарский край, Афипский</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 1
-пластиковые окна - 42</t>
-        </is>
-      </c>
-      <c r="C39" s="6" t="n">
-        <v>63</v>
-      </c>
-      <c r="D39" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="6" t="n"/>
+      <c r="D39" s="6" t="n"/>
       <c r="E39" s="6" t="n"/>
       <c r="F39" s="6" t="n"/>
       <c r="G39" s="6" t="n"/>
@@ -1745,18 +1477,9 @@
           <t>Краснодарский край, Брюховецкая</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 4
-пластиковые окна - 64</t>
-        </is>
-      </c>
-      <c r="C40" s="6" t="n">
-        <v>49</v>
-      </c>
-      <c r="D40" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="6" t="n"/>
+      <c r="D40" s="6" t="n"/>
       <c r="E40" s="6" t="n"/>
       <c r="F40" s="6" t="n"/>
       <c r="G40" s="6" t="n"/>
@@ -1774,18 +1497,9 @@
           <t>Краснодарский край, Ахтырский</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 21</t>
-        </is>
-      </c>
-      <c r="C41" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D41" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="6" t="n"/>
+      <c r="D41" s="6" t="n"/>
       <c r="E41" s="6" t="n"/>
       <c r="F41" s="6" t="n"/>
       <c r="G41" s="6" t="n"/>
@@ -1803,18 +1517,9 @@
           <t>Краснодарский край, Новопокровская</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 20</t>
-        </is>
-      </c>
-      <c r="C42" s="6" t="n">
-        <v>36</v>
-      </c>
-      <c r="D42" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="6" t="n"/>
+      <c r="D42" s="6" t="n"/>
       <c r="E42" s="6" t="n"/>
       <c r="F42" s="6" t="n"/>
       <c r="G42" s="6" t="n"/>
@@ -1832,18 +1537,9 @@
           <t>Краснодарский край, Выселки</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 44</t>
-        </is>
-      </c>
-      <c r="C43" s="6" t="n">
-        <v>146</v>
-      </c>
-      <c r="D43" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B43" s="4" t="n"/>
+      <c r="C43" s="6" t="n"/>
+      <c r="D43" s="6" t="n"/>
       <c r="E43" s="6" t="n"/>
       <c r="F43" s="6" t="n"/>
       <c r="G43" s="6" t="n"/>
@@ -1861,18 +1557,9 @@
           <t>Краснодарский край, Старощербиновская</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 1
-пластиковые окна - 38</t>
-        </is>
-      </c>
-      <c r="C44" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D44" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="6" t="n"/>
       <c r="E44" s="6" t="n"/>
       <c r="F44" s="6" t="n"/>
       <c r="G44" s="6" t="n"/>
@@ -1890,18 +1577,9 @@
           <t>Краснодарский край, Холмская</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 25</t>
-        </is>
-      </c>
-      <c r="C45" s="6" t="n">
-        <v>48</v>
-      </c>
-      <c r="D45" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="4" t="n"/>
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="6" t="n"/>
       <c r="E45" s="6" t="n"/>
       <c r="F45" s="6" t="n"/>
       <c r="G45" s="6" t="n"/>
@@ -1919,18 +1597,9 @@
           <t>Краснодарский край, Белая Глина</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 35</t>
-        </is>
-      </c>
-      <c r="C46" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D46" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="6" t="n"/>
+      <c r="D46" s="6" t="n"/>
       <c r="E46" s="6" t="n"/>
       <c r="F46" s="6" t="n"/>
       <c r="G46" s="6" t="n"/>
@@ -1948,18 +1617,9 @@
           <t>Краснодарский край, Медведовская</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 23</t>
-        </is>
-      </c>
-      <c r="C47" s="6" t="n">
-        <v>32</v>
-      </c>
-      <c r="D47" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="6" t="n"/>
+      <c r="D47" s="6" t="n"/>
       <c r="E47" s="6" t="n"/>
       <c r="F47" s="6" t="n"/>
       <c r="G47" s="6" t="n"/>
@@ -1977,18 +1637,9 @@
           <t>Краснодарский край, Ладожская</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 15</t>
-        </is>
-      </c>
-      <c r="C48" s="6" t="n">
-        <v>101</v>
-      </c>
-      <c r="D48" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="4" t="n"/>
+      <c r="C48" s="6" t="n"/>
+      <c r="D48" s="6" t="n"/>
       <c r="E48" s="6" t="n"/>
       <c r="F48" s="6" t="n"/>
       <c r="G48" s="6" t="n"/>
@@ -2006,18 +1657,9 @@
           <t>Краснодарский край, Крыловская</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 25</t>
-        </is>
-      </c>
-      <c r="C49" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D49" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="6" t="n"/>
+      <c r="D49" s="6" t="n"/>
       <c r="E49" s="6" t="n"/>
       <c r="F49" s="6" t="n"/>
       <c r="G49" s="6" t="n"/>
@@ -2035,18 +1677,9 @@
           <t>Краснодарский край, Старовеличковская</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 10</t>
-        </is>
-      </c>
-      <c r="C50" s="6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D50" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="4" t="n"/>
+      <c r="C50" s="6" t="n"/>
+      <c r="D50" s="6" t="n"/>
       <c r="E50" s="6" t="n"/>
       <c r="F50" s="6" t="n"/>
       <c r="G50" s="6" t="n"/>
@@ -2064,18 +1697,9 @@
           <t>Краснодарский край, Калининская</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 20</t>
-        </is>
-      </c>
-      <c r="C51" s="6" t="n">
-        <v>121</v>
-      </c>
-      <c r="D51" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B51" s="4" t="n"/>
+      <c r="C51" s="6" t="n"/>
+      <c r="D51" s="6" t="n"/>
       <c r="E51" s="6" t="n"/>
       <c r="F51" s="6" t="n"/>
       <c r="G51" s="6" t="n"/>
@@ -2093,18 +1717,9 @@
           <t>Краснодарский край, Васюринская</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 2
-пластиковые окна - 18</t>
-        </is>
-      </c>
-      <c r="C52" s="6" t="n">
-        <v>44</v>
-      </c>
-      <c r="D52" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="6" t="n"/>
+      <c r="D52" s="6" t="n"/>
       <c r="E52" s="6" t="n"/>
       <c r="F52" s="6" t="n"/>
       <c r="G52" s="6" t="n"/>
@@ -2122,18 +1737,9 @@
           <t>Краснодарский край, Стародеревянковская</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 4</t>
-        </is>
-      </c>
-      <c r="C53" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D53" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="6" t="n"/>
+      <c r="D53" s="6" t="n"/>
       <c r="E53" s="6" t="n"/>
       <c r="F53" s="6" t="n"/>
       <c r="G53" s="6" t="n"/>
@@ -2152,16 +1758,8 @@
         </is>
       </c>
       <c r="B54" s="4" t="n"/>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>Город отсутствует в поиске</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr">
-        <is>
-          <t>Город отсутствует в поиске</t>
-        </is>
-      </c>
+      <c r="C54" s="6" t="n"/>
+      <c r="D54" s="6" t="n"/>
       <c r="E54" s="6" t="n"/>
       <c r="F54" s="6" t="n"/>
       <c r="G54" s="6" t="n"/>
@@ -2179,18 +1777,9 @@
           <t>Краснодарский край, Новоминская</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 1
-пластиковые окна - 8</t>
-        </is>
-      </c>
-      <c r="C55" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D55" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="6" t="n"/>
+      <c r="D55" s="6" t="n"/>
       <c r="E55" s="6" t="n"/>
       <c r="F55" s="6" t="n"/>
       <c r="G55" s="6" t="n"/>
@@ -2208,18 +1797,9 @@
           <t>Краснодарский край, Кавказская</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 7</t>
-        </is>
-      </c>
-      <c r="C56" s="6" t="n">
-        <v>97</v>
-      </c>
-      <c r="D56" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="6" t="n"/>
       <c r="E56" s="6" t="n"/>
       <c r="F56" s="6" t="n"/>
       <c r="G56" s="6" t="n"/>
@@ -2237,18 +1817,9 @@
           <t>Краснодарский край, Псебай</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 12</t>
-        </is>
-      </c>
-      <c r="C57" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D57" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="6" t="n"/>
       <c r="E57" s="6" t="n"/>
       <c r="F57" s="6" t="n"/>
       <c r="G57" s="6" t="n"/>
@@ -2266,18 +1837,9 @@
           <t>Краснодарский край, Марьянская</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 1
-пластиковые окна - 8</t>
-        </is>
-      </c>
-      <c r="C58" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="D58" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="6" t="n"/>
       <c r="E58" s="6" t="n"/>
       <c r="F58" s="6" t="n"/>
       <c r="G58" s="6" t="n"/>
@@ -2295,18 +1857,9 @@
           <t>Краснодарский край, Старомышастовская</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 5</t>
-        </is>
-      </c>
-      <c r="C59" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D59" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="6" t="n"/>
+      <c r="D59" s="6" t="n"/>
       <c r="E59" s="6" t="n"/>
       <c r="F59" s="6" t="n"/>
       <c r="G59" s="6" t="n"/>
@@ -2324,18 +1877,9 @@
           <t>Краснодарский край, Анастасиевская</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 9</t>
-        </is>
-      </c>
-      <c r="C60" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D60" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="6" t="n"/>
+      <c r="D60" s="6" t="n"/>
       <c r="E60" s="6" t="n"/>
       <c r="F60" s="6" t="n"/>
       <c r="G60" s="6" t="n"/>
@@ -2353,18 +1897,9 @@
           <t>Краснодарский край, Пластуновская</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 7</t>
-        </is>
-      </c>
-      <c r="C61" s="6" t="n">
-        <v>38</v>
-      </c>
-      <c r="D61" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="4" t="n"/>
+      <c r="C61" s="6" t="n"/>
+      <c r="D61" s="6" t="n"/>
       <c r="E61" s="6" t="n"/>
       <c r="F61" s="6" t="n"/>
       <c r="G61" s="6" t="n"/>
@@ -2382,18 +1917,9 @@
           <t>Краснодарский край, Старонижестеблиевская</t>
         </is>
       </c>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 5</t>
-        </is>
-      </c>
-      <c r="C62" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D62" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="4" t="n"/>
+      <c r="C62" s="6" t="n"/>
+      <c r="D62" s="6" t="n"/>
       <c r="E62" s="6" t="n"/>
       <c r="F62" s="6" t="n"/>
       <c r="G62" s="6" t="n"/>
@@ -2411,18 +1937,9 @@
           <t>Краснодарский край, Новомихайловский</t>
         </is>
       </c>
-      <c r="B63" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 14</t>
-        </is>
-      </c>
-      <c r="C63" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D63" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="6" t="n"/>
+      <c r="D63" s="6" t="n"/>
       <c r="E63" s="6" t="n"/>
       <c r="F63" s="6" t="n"/>
       <c r="G63" s="6" t="n"/>
@@ -2440,18 +1957,9 @@
           <t>Краснодарский край, Новомышастовская</t>
         </is>
       </c>
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 1
-пластиковые окна - 5</t>
-        </is>
-      </c>
-      <c r="C64" s="6" t="n">
-        <v>41</v>
-      </c>
-      <c r="D64" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="4" t="n"/>
+      <c r="C64" s="6" t="n"/>
+      <c r="D64" s="6" t="n"/>
       <c r="E64" s="6" t="n"/>
       <c r="F64" s="6" t="n"/>
       <c r="G64" s="6" t="n"/>
@@ -2469,18 +1977,9 @@
           <t>Краснодарский край, Трудобеликовский</t>
         </is>
       </c>
-      <c r="B65" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 1
-пластиковые окна - 5</t>
-        </is>
-      </c>
-      <c r="C65" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="6" t="n"/>
+      <c r="D65" s="6" t="n"/>
       <c r="E65" s="6" t="n"/>
       <c r="F65" s="6" t="n"/>
       <c r="G65" s="6" t="n"/>
@@ -2498,18 +1997,9 @@
           <t>Краснодарский край, Нововеличковская</t>
         </is>
       </c>
-      <c r="B66" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 11</t>
-        </is>
-      </c>
-      <c r="C66" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D66" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="6" t="n"/>
       <c r="E66" s="6" t="n"/>
       <c r="F66" s="6" t="n"/>
       <c r="G66" s="6" t="n"/>
@@ -2527,18 +2017,9 @@
           <t>Краснодарский край, Архангельская</t>
         </is>
       </c>
-      <c r="B67" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 7</t>
-        </is>
-      </c>
-      <c r="C67" s="6" t="n">
-        <v>63</v>
-      </c>
-      <c r="D67" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="6" t="n"/>
+      <c r="D67" s="6" t="n"/>
       <c r="E67" s="6" t="n"/>
       <c r="F67" s="6" t="n"/>
       <c r="G67" s="6" t="n"/>
@@ -2556,18 +2037,9 @@
           <t>Краснодарский край, Черноморский</t>
         </is>
       </c>
-      <c r="B68" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 2</t>
-        </is>
-      </c>
-      <c r="C68" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D68" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="6" t="n"/>
+      <c r="D68" s="6" t="n"/>
       <c r="E68" s="6" t="n"/>
       <c r="F68" s="6" t="n"/>
       <c r="G68" s="6" t="n"/>
@@ -2585,18 +2057,9 @@
           <t>Краснодарский край, Фастовецкая</t>
         </is>
       </c>
-      <c r="B69" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 1</t>
-        </is>
-      </c>
-      <c r="C69" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D69" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="6" t="n"/>
+      <c r="D69" s="6" t="n"/>
       <c r="E69" s="6" t="n"/>
       <c r="F69" s="6" t="n"/>
       <c r="G69" s="6" t="n"/>
@@ -2614,18 +2077,9 @@
           <t>Краснодарский край, Воронежская</t>
         </is>
       </c>
-      <c r="B70" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 3</t>
-        </is>
-      </c>
-      <c r="C70" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D70" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="6" t="n"/>
+      <c r="D70" s="6" t="n"/>
       <c r="E70" s="6" t="n"/>
       <c r="F70" s="6" t="n"/>
       <c r="G70" s="6" t="n"/>
@@ -2643,18 +2097,9 @@
           <t>Краснодарский край, Переясловская</t>
         </is>
       </c>
-      <c r="B71" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 3</t>
-        </is>
-      </c>
-      <c r="C71" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D71" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="6" t="n"/>
+      <c r="D71" s="6" t="n"/>
       <c r="E71" s="6" t="n"/>
       <c r="F71" s="6" t="n"/>
       <c r="G71" s="6" t="n"/>
@@ -2672,18 +2117,9 @@
           <t>Краснодарский край, Роговская</t>
         </is>
       </c>
-      <c r="B72" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 6</t>
-        </is>
-      </c>
-      <c r="C72" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D72" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="6" t="n"/>
       <c r="E72" s="6" t="n"/>
       <c r="F72" s="6" t="n"/>
       <c r="G72" s="6" t="n"/>
@@ -2701,18 +2137,9 @@
           <t>Краснодарский край, Архипо-Осиповка</t>
         </is>
       </c>
-      <c r="B73" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 27</t>
-        </is>
-      </c>
-      <c r="C73" s="6" t="n">
-        <v>38</v>
-      </c>
-      <c r="D73" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="6" t="n"/>
+      <c r="D73" s="6" t="n"/>
       <c r="E73" s="6" t="n"/>
       <c r="F73" s="6" t="n"/>
       <c r="G73" s="6" t="n"/>
@@ -2730,18 +2157,9 @@
           <t>Краснодарский край, Смоленская</t>
         </is>
       </c>
-      <c r="B74" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 2</t>
-        </is>
-      </c>
-      <c r="C74" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D74" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="4" t="n"/>
+      <c r="C74" s="6" t="n"/>
+      <c r="D74" s="6" t="n"/>
       <c r="E74" s="6" t="n"/>
       <c r="F74" s="6" t="n"/>
       <c r="G74" s="6" t="n"/>
@@ -2759,18 +2177,9 @@
           <t>Краснодарский край, Кабардинка</t>
         </is>
       </c>
-      <c r="B75" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 2
-пластиковые окна - 27</t>
-        </is>
-      </c>
-      <c r="C75" s="6" t="n">
-        <v>147</v>
-      </c>
-      <c r="D75" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="6" t="n"/>
+      <c r="D75" s="6" t="n"/>
       <c r="E75" s="6" t="n"/>
       <c r="F75" s="6" t="n"/>
       <c r="G75" s="6" t="n"/>
@@ -2788,18 +2197,9 @@
           <t>Краснодарский край, Темиргоевская</t>
         </is>
       </c>
-      <c r="B76" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 2
-пластиковые окна - 8</t>
-        </is>
-      </c>
-      <c r="C76" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D76" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="6" t="n"/>
+      <c r="D76" s="6" t="n"/>
       <c r="E76" s="6" t="n"/>
       <c r="F76" s="6" t="n"/>
       <c r="G76" s="6" t="n"/>
@@ -2818,12 +2218,8 @@
         </is>
       </c>
       <c r="B77" s="4" t="n"/>
-      <c r="C77" s="6" t="n">
-        <v>51</v>
-      </c>
-      <c r="D77" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="C77" s="6" t="n"/>
+      <c r="D77" s="6" t="n"/>
       <c r="E77" s="6" t="n"/>
       <c r="F77" s="6" t="n"/>
       <c r="G77" s="6" t="n"/>
@@ -2841,18 +2237,9 @@
           <t>Краснодарский край, Джубга</t>
         </is>
       </c>
-      <c r="B78" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 27</t>
-        </is>
-      </c>
-      <c r="C78" s="6" t="n">
-        <v>39</v>
-      </c>
-      <c r="D78" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="6" t="n"/>
+      <c r="D78" s="6" t="n"/>
       <c r="E78" s="6" t="n"/>
       <c r="F78" s="6" t="n"/>
       <c r="G78" s="6" t="n"/>
@@ -2870,18 +2257,9 @@
           <t>Краснодарский край, Новодеревянковская</t>
         </is>
       </c>
-      <c r="B79" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 3</t>
-        </is>
-      </c>
-      <c r="C79" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D79" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="6" t="n"/>
+      <c r="D79" s="6" t="n"/>
       <c r="E79" s="6" t="n"/>
       <c r="F79" s="6" t="n"/>
       <c r="G79" s="6" t="n"/>
@@ -2919,18 +2297,9 @@
           <t>Краснодарский край, Новорождественская</t>
         </is>
       </c>
-      <c r="B81" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 3</t>
-        </is>
-      </c>
-      <c r="C81" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D81" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="6" t="n"/>
+      <c r="D81" s="6" t="n"/>
       <c r="E81" s="6" t="n"/>
       <c r="F81" s="6" t="n"/>
       <c r="G81" s="6" t="n"/>
@@ -2948,18 +2317,9 @@
           <t>Краснодарский край, Новолеушковская</t>
         </is>
       </c>
-      <c r="B82" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 4</t>
-        </is>
-      </c>
-      <c r="C82" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D82" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="6" t="n"/>
+      <c r="D82" s="6" t="n"/>
       <c r="E82" s="6" t="n"/>
       <c r="F82" s="6" t="n"/>
       <c r="G82" s="6" t="n"/>
@@ -2978,16 +2338,8 @@
         </is>
       </c>
       <c r="B83" s="4" t="n"/>
-      <c r="C83" s="6" t="inlineStr">
-        <is>
-          <t>Город отсутствует в поиске</t>
-        </is>
-      </c>
-      <c r="D83" s="6" t="inlineStr">
-        <is>
-          <t>Город отсутствует в поиске</t>
-        </is>
-      </c>
+      <c r="C83" s="6" t="n"/>
+      <c r="D83" s="6" t="n"/>
       <c r="E83" s="6" t="n"/>
       <c r="F83" s="6" t="n"/>
       <c r="G83" s="6" t="n"/>
@@ -3005,18 +2357,9 @@
           <t>Краснодарский край, Новомалороссийская</t>
         </is>
       </c>
-      <c r="B84" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 3</t>
-        </is>
-      </c>
-      <c r="C84" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D84" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="6" t="n"/>
+      <c r="D84" s="6" t="n"/>
       <c r="E84" s="6" t="n"/>
       <c r="F84" s="6" t="n"/>
       <c r="G84" s="6" t="n"/>
@@ -3034,18 +2377,9 @@
           <t>Краснодарский край, Калниболотская</t>
         </is>
       </c>
-      <c r="B85" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 1</t>
-        </is>
-      </c>
-      <c r="C85" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D85" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B85" s="4" t="n"/>
+      <c r="C85" s="6" t="n"/>
+      <c r="D85" s="6" t="n"/>
       <c r="E85" s="6" t="n"/>
       <c r="F85" s="6" t="n"/>
       <c r="G85" s="6" t="n"/>
@@ -3063,18 +2397,9 @@
           <t>Краснодарский край, Кирпильская</t>
         </is>
       </c>
-      <c r="B86" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 7</t>
-        </is>
-      </c>
-      <c r="C86" s="6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D86" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B86" s="4" t="n"/>
+      <c r="C86" s="6" t="n"/>
+      <c r="D86" s="6" t="n"/>
       <c r="E86" s="6" t="n"/>
       <c r="F86" s="6" t="n"/>
       <c r="G86" s="6" t="n"/>
@@ -3092,18 +2417,9 @@
           <t>Краснодарский край, Старолеушковская</t>
         </is>
       </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 2</t>
-        </is>
-      </c>
-      <c r="C87" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B87" s="4" t="n"/>
+      <c r="C87" s="6" t="n"/>
+      <c r="D87" s="6" t="n"/>
       <c r="E87" s="6" t="n"/>
       <c r="F87" s="6" t="n"/>
       <c r="G87" s="6" t="n"/>
@@ -3121,18 +2437,9 @@
           <t>Краснодарский край, Южный</t>
         </is>
       </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 5</t>
-        </is>
-      </c>
-      <c r="C88" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="D88" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B88" s="4" t="n"/>
+      <c r="C88" s="6" t="n"/>
+      <c r="D88" s="6" t="n"/>
       <c r="E88" s="6" t="n"/>
       <c r="F88" s="6" t="n"/>
       <c r="G88" s="6" t="n"/>
@@ -3150,18 +2457,9 @@
           <t>Краснодарский край, Мингрельская</t>
         </is>
       </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 5</t>
-        </is>
-      </c>
-      <c r="C89" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D89" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B89" s="4" t="n"/>
+      <c r="C89" s="6" t="n"/>
+      <c r="D89" s="6" t="n"/>
       <c r="E89" s="6" t="n"/>
       <c r="F89" s="6" t="n"/>
       <c r="G89" s="6" t="n"/>
@@ -3179,18 +2477,9 @@
           <t>Краснодарский край, Новоджерелиевская</t>
         </is>
       </c>
-      <c r="B90" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 2</t>
-        </is>
-      </c>
-      <c r="C90" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D90" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B90" s="4" t="n"/>
+      <c r="C90" s="6" t="n"/>
+      <c r="D90" s="6" t="n"/>
       <c r="E90" s="6" t="n"/>
       <c r="F90" s="6" t="n"/>
       <c r="G90" s="6" t="n"/>
@@ -3208,18 +2497,9 @@
           <t>Краснодарский край, Новокорсунская</t>
         </is>
       </c>
-      <c r="B91" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 3</t>
-        </is>
-      </c>
-      <c r="C91" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D91" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B91" s="4" t="n"/>
+      <c r="C91" s="6" t="n"/>
+      <c r="D91" s="6" t="n"/>
       <c r="E91" s="6" t="n"/>
       <c r="F91" s="6" t="n"/>
       <c r="G91" s="6" t="n"/>
@@ -3237,18 +2517,9 @@
           <t>Краснодарский край, Ольгинская</t>
         </is>
       </c>
-      <c r="B92" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 1</t>
-        </is>
-      </c>
-      <c r="C92" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D92" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B92" s="4" t="n"/>
+      <c r="C92" s="6" t="n"/>
+      <c r="D92" s="6" t="n"/>
       <c r="E92" s="6" t="n"/>
       <c r="F92" s="6" t="n"/>
       <c r="G92" s="6" t="n"/>
@@ -3267,12 +2538,8 @@
         </is>
       </c>
       <c r="B93" s="4" t="n"/>
-      <c r="C93" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D93" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C93" s="6" t="n"/>
+      <c r="D93" s="6" t="n"/>
       <c r="E93" s="6" t="n"/>
       <c r="F93" s="6" t="n"/>
       <c r="G93" s="6" t="n"/>
@@ -3290,18 +2557,9 @@
           <t>Краснодарский край, Азовская</t>
         </is>
       </c>
-      <c r="B94" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 2</t>
-        </is>
-      </c>
-      <c r="C94" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B94" s="4" t="n"/>
+      <c r="C94" s="6" t="n"/>
+      <c r="D94" s="6" t="n"/>
       <c r="E94" s="6" t="n"/>
       <c r="F94" s="6" t="n"/>
       <c r="G94" s="6" t="n"/>
@@ -3319,18 +2577,9 @@
           <t>Краснодарский край, Небуг</t>
         </is>
       </c>
-      <c r="B95" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 11</t>
-        </is>
-      </c>
-      <c r="C95" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D95" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B95" s="4" t="n"/>
+      <c r="C95" s="6" t="n"/>
+      <c r="D95" s="6" t="n"/>
       <c r="E95" s="6" t="n"/>
       <c r="F95" s="6" t="n"/>
       <c r="G95" s="6" t="n"/>
@@ -3348,18 +2597,9 @@
           <t>Краснодарский край, Агроном</t>
         </is>
       </c>
-      <c r="B96" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 4</t>
-        </is>
-      </c>
-      <c r="C96" s="6" t="n">
-        <v>38</v>
-      </c>
-      <c r="D96" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B96" s="4" t="n"/>
+      <c r="C96" s="6" t="n"/>
+      <c r="D96" s="6" t="n"/>
       <c r="E96" s="6" t="n"/>
       <c r="F96" s="6" t="n"/>
       <c r="G96" s="6" t="n"/>
@@ -3398,12 +2638,8 @@
         </is>
       </c>
       <c r="B98" s="4" t="n"/>
-      <c r="C98" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D98" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C98" s="6" t="n"/>
+      <c r="D98" s="6" t="n"/>
       <c r="E98" s="6" t="n"/>
       <c r="F98" s="6" t="n"/>
       <c r="G98" s="6" t="n"/>
@@ -3422,12 +2658,8 @@
         </is>
       </c>
       <c r="B99" s="4" t="n"/>
-      <c r="C99" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D99" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C99" s="6" t="n"/>
+      <c r="D99" s="6" t="n"/>
       <c r="E99" s="6" t="n"/>
       <c r="F99" s="6" t="n"/>
       <c r="G99" s="6" t="n"/>
@@ -3446,12 +2678,8 @@
         </is>
       </c>
       <c r="B100" s="4" t="n"/>
-      <c r="C100" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D100" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C100" s="6" t="n"/>
+      <c r="D100" s="6" t="n"/>
       <c r="E100" s="6" t="n"/>
       <c r="F100" s="6" t="n"/>
       <c r="G100" s="6" t="n"/>
@@ -3469,18 +2697,9 @@
           <t>Краснодарский край, Новолабинская</t>
         </is>
       </c>
-      <c r="B101" s="4" t="inlineStr">
-        <is>
-          <t>окна пвх - 0
-пластиковые окна - 2</t>
-        </is>
-      </c>
-      <c r="C101" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D101" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B101" s="4" t="n"/>
+      <c r="C101" s="6" t="n"/>
+      <c r="D101" s="6" t="n"/>
       <c r="E101" s="6" t="n"/>
       <c r="F101" s="6" t="n"/>
       <c r="G101" s="6" t="n"/>
@@ -3499,16 +2718,8 @@
         </is>
       </c>
       <c r="B102" s="4" t="n"/>
-      <c r="C102" s="6" t="inlineStr">
-        <is>
-          <t>Город отсутствует в поиске</t>
-        </is>
-      </c>
-      <c r="D102" s="6" t="inlineStr">
-        <is>
-          <t>Город отсутствует в поиске</t>
-        </is>
-      </c>
+      <c r="C102" s="6" t="n"/>
+      <c r="D102" s="6" t="n"/>
       <c r="E102" s="6" t="n"/>
       <c r="F102" s="6" t="n"/>
       <c r="G102" s="6" t="n"/>

--- a/table_after_parsing/parsing_30_04_2024.xlsx
+++ b/table_after_parsing/parsing_30_04_2024.xlsx
@@ -630,8 +630,8 @@
   </sheetPr>
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -673,8 +673,9 @@
           <t>Все категории
 Для дома и дачи
 Ремонт и строительство
-Окна и балконы
-Окна</t>
+Стройматериалы
+Строительные смеси
+Бетон</t>
         </is>
       </c>
       <c r="C2" s="25" t="n"/>
@@ -698,7 +699,7 @@
       </c>
       <c r="B3" s="27" t="inlineStr">
         <is>
-          <t>Пластиковые окна</t>
+          <t>бетон</t>
         </is>
       </c>
       <c r="C3" s="25" t="n"/>
@@ -819,10 +820,10 @@
       </c>
       <c r="B8" s="4" t="n"/>
       <c r="C8" s="5" t="n">
-        <v>46960</v>
+        <v>3629</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6" t="n"/>
       <c r="F8" s="6" t="n"/>
@@ -843,10 +844,10 @@
       </c>
       <c r="B9" s="4" t="n"/>
       <c r="C9" s="6" t="n">
-        <v>16182</v>
+        <v>331</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E9" s="6" t="n"/>
       <c r="F9" s="6" t="n"/>
@@ -867,10 +868,10 @@
       </c>
       <c r="B10" s="4" t="n"/>
       <c r="C10" s="6" t="n">
-        <v>1390</v>
+        <v>1</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6" t="n"/>
       <c r="F10" s="6" t="n"/>
@@ -891,10 +892,10 @@
       </c>
       <c r="B11" s="4" t="n"/>
       <c r="C11" s="6" t="n">
-        <v>3370</v>
+        <v>186</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E11" s="6" t="n"/>
       <c r="F11" s="6" t="n"/>
@@ -915,10 +916,10 @@
       </c>
       <c r="B12" s="4" t="n"/>
       <c r="C12" s="6" t="n">
-        <v>1082</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="6" t="n"/>
       <c r="F12" s="6" t="n"/>
@@ -939,10 +940,10 @@
       </c>
       <c r="B13" s="4" t="n"/>
       <c r="C13" s="6" t="n">
-        <v>1427</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" s="6" t="n"/>
       <c r="F13" s="6" t="n"/>
